--- a/01_Documents/02_Templates/請書テンプレート.xlsx
+++ b/01_Documents/02_Templates/請書テンプレート.xlsx
@@ -54,7 +54,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,15 +78,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <right/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -123,12 +119,6 @@
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -496,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +501,7 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -592,6 +583,11 @@
           <t>納期・備考</t>
         </is>
       </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>見積番号</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -622,6 +618,11 @@
         </is>
       </c>
       <c r="G10" s="9" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>{{QuoteNumber}}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
@@ -633,6 +634,7 @@
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="9" t="n"/>
+      <c r="H11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
@@ -644,6 +646,7 @@
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="9" t="n"/>
+      <c r="H12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
@@ -655,6 +658,7 @@
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="9" t="n"/>
+      <c r="H13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
@@ -666,6 +670,7 @@
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="9" t="n"/>
+      <c r="H14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
@@ -677,6 +682,7 @@
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="9" t="n"/>
+      <c r="H15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
@@ -688,6 +694,7 @@
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="9" t="n"/>
+      <c r="H16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
@@ -699,6 +706,7 @@
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="9" t="n"/>
+      <c r="H17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
@@ -710,6 +718,7 @@
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="9" t="n"/>
+      <c r="H18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
@@ -721,6 +730,7 @@
       <c r="E19" s="6" t="n"/>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="9" t="n"/>
+      <c r="H19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
@@ -732,96 +742,127 @@
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="9" t="n"/>
+      <c r="H20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr"/>
+      <c r="A21" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="9" t="n"/>
+      <c r="H21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr"/>
+      <c r="A22" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="9" t="n"/>
+      <c r="H22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr"/>
+      <c r="A23" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="9" t="n"/>
+      <c r="H23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr"/>
+      <c r="A24" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="9" t="n"/>
+      <c r="H24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
+      <c r="A25" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="9" t="n"/>
+      <c r="H25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr"/>
+      <c r="A26" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="9" t="n"/>
+      <c r="H26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr"/>
+      <c r="A27" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="9" t="n"/>
+      <c r="H27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr"/>
+      <c r="A28" s="6" t="n">
+        <v>19</v>
+      </c>
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="n"/>
       <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="9" t="n"/>
+      <c r="H28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
+      <c r="A29" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="9" t="n"/>
+      <c r="H29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr"/>
+      <c r="A30" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="n"/>
       <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="9" t="n"/>
+      <c r="H30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="E31" s="10" t="inlineStr">
@@ -857,12 +898,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="16" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>受領担当者：</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr"/>
+      <c r="C35" s="14" t="inlineStr"/>
       <c r="D35" s="15" t="n"/>
       <c r="E35" s="15" t="n"/>
       <c r="F35" t="inlineStr">
